--- a/lab1/datos/Supermarket-Sales-Data.xlsx
+++ b/lab1/datos/Supermarket-Sales-Data.xlsx
@@ -1,15 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data_analytics\Modulo1\me-lab1\lab1\datos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14594A9D-69FC-4484-887C-02C64F2A49A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="47880" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -433,8 +452,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -497,13 +516,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -541,7 +568,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -575,6 +602,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -609,9 +637,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -784,14 +813,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P530"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="4" max="4" width="15.86328125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -841,7 +873,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>44197</v>
       </c>
@@ -891,7 +923,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>44198</v>
       </c>
@@ -941,7 +973,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>44198</v>
       </c>
@@ -988,7 +1020,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>44199</v>
       </c>
@@ -1035,7 +1067,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>44200</v>
       </c>
@@ -1070,7 +1102,7 @@
         <v>60</v>
       </c>
       <c r="M6">
-        <v>80.40000000000001</v>
+        <v>80.400000000000006</v>
       </c>
       <c r="N6">
         <v>4</v>
@@ -1082,7 +1114,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>44205</v>
       </c>
@@ -1126,7 +1158,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>44205</v>
       </c>
@@ -1173,7 +1205,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>44205</v>
       </c>
@@ -1217,7 +1249,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>44207</v>
       </c>
@@ -1243,13 +1275,13 @@
         <v>123</v>
       </c>
       <c r="K10">
-        <v>85.76000000000001</v>
+        <v>85.76</v>
       </c>
       <c r="L10">
         <v>201</v>
       </c>
       <c r="M10">
-        <v>257.28</v>
+        <v>257.27999999999997</v>
       </c>
       <c r="N10">
         <v>11</v>
@@ -1261,7 +1293,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>44207</v>
       </c>
@@ -1308,7 +1340,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>44207</v>
       </c>
@@ -1352,7 +1384,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>44208</v>
       </c>
@@ -1399,7 +1431,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1446,7 +1478,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1493,7 +1525,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1531,7 +1563,7 @@
         <v>30</v>
       </c>
       <c r="M16">
-        <v>40.2</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="N16">
         <v>19</v>
@@ -1543,7 +1575,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1593,7 +1625,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1643,7 +1675,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1693,7 +1725,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1743,7 +1775,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>44217</v>
       </c>
@@ -1793,7 +1825,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>44221</v>
       </c>
@@ -1843,7 +1875,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>44221</v>
       </c>
@@ -1893,7 +1925,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>44221</v>
       </c>
@@ -1943,7 +1975,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>44222</v>
       </c>
@@ -1993,7 +2025,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>44222</v>
       </c>
@@ -2043,7 +2075,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>44222</v>
       </c>
@@ -2093,7 +2125,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>44223</v>
       </c>
@@ -2143,7 +2175,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>44223</v>
       </c>
@@ -2193,7 +2225,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>44224</v>
       </c>
@@ -2243,7 +2275,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>44224</v>
       </c>
@@ -2293,7 +2325,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>44229</v>
       </c>
@@ -2343,7 +2375,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>44230</v>
       </c>
@@ -2393,7 +2425,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>44230</v>
       </c>
@@ -2443,7 +2475,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>44231</v>
       </c>
@@ -2475,7 +2507,7 @@
         <v>67</v>
       </c>
       <c r="K35">
-        <v>85.76000000000001</v>
+        <v>85.76</v>
       </c>
       <c r="L35">
         <v>268</v>
@@ -2493,7 +2525,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>44232</v>
       </c>
@@ -2531,7 +2563,7 @@
         <v>469</v>
       </c>
       <c r="M36">
-        <v>581.5599999999999</v>
+        <v>581.55999999999995</v>
       </c>
       <c r="N36">
         <v>5</v>
@@ -2543,7 +2575,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>44232</v>
       </c>
@@ -2575,13 +2607,13 @@
         <v>133</v>
       </c>
       <c r="K37">
-        <v>155.61</v>
+        <v>155.61000000000001</v>
       </c>
       <c r="L37">
         <v>133</v>
       </c>
       <c r="M37">
-        <v>155.61</v>
+        <v>155.61000000000001</v>
       </c>
       <c r="N37">
         <v>5</v>
@@ -2593,7 +2625,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>44232</v>
       </c>
@@ -2643,7 +2675,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>44233</v>
       </c>
@@ -2693,7 +2725,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>44236</v>
       </c>
@@ -2731,7 +2763,7 @@
         <v>770</v>
       </c>
       <c r="M40">
-        <v>816.1999999999999</v>
+        <v>816.19999999999993</v>
       </c>
       <c r="N40">
         <v>9</v>
@@ -2743,7 +2775,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>44239</v>
       </c>
@@ -2793,7 +2825,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>44239</v>
       </c>
@@ -2843,7 +2875,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>44242</v>
       </c>
@@ -2893,7 +2925,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>44245</v>
       </c>
@@ -2931,7 +2963,7 @@
         <v>72</v>
       </c>
       <c r="M44">
-        <v>94.31999999999999</v>
+        <v>94.32</v>
       </c>
       <c r="N44">
         <v>18</v>
@@ -2943,7 +2975,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>44247</v>
       </c>
@@ -2993,7 +3025,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>44249</v>
       </c>
@@ -3043,7 +3075,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>44250</v>
       </c>
@@ -3093,7 +3125,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>44250</v>
       </c>
@@ -3125,13 +3157,13 @@
         <v>133</v>
       </c>
       <c r="K48">
-        <v>155.61</v>
+        <v>155.61000000000001</v>
       </c>
       <c r="L48">
         <v>266</v>
       </c>
       <c r="M48">
-        <v>311.22</v>
+        <v>311.22000000000003</v>
       </c>
       <c r="N48">
         <v>23</v>
@@ -3143,7 +3175,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>44252</v>
       </c>
@@ -3175,13 +3207,13 @@
         <v>105</v>
       </c>
       <c r="K49">
-        <v>142.8</v>
+        <v>142.80000000000001</v>
       </c>
       <c r="L49">
         <v>420</v>
       </c>
       <c r="M49">
-        <v>571.2</v>
+        <v>571.20000000000005</v>
       </c>
       <c r="N49">
         <v>25</v>
@@ -3193,7 +3225,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>44252</v>
       </c>
@@ -3243,7 +3275,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>44252</v>
       </c>
@@ -3293,7 +3325,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>44254</v>
       </c>
@@ -3331,7 +3363,7 @@
         <v>407</v>
       </c>
       <c r="M52">
-        <v>541.3100000000001</v>
+        <v>541.31000000000006</v>
       </c>
       <c r="N52">
         <v>27</v>
@@ -3343,7 +3375,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>44258</v>
       </c>
@@ -3393,7 +3425,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>44262</v>
       </c>
@@ -3443,7 +3475,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>44263</v>
       </c>
@@ -3493,7 +3525,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>44263</v>
       </c>
@@ -3543,7 +3575,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>44264</v>
       </c>
@@ -3581,7 +3613,7 @@
         <v>282</v>
       </c>
       <c r="M57">
-        <v>318.66</v>
+        <v>318.66000000000003</v>
       </c>
       <c r="N57">
         <v>9</v>
@@ -3593,7 +3625,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>44266</v>
       </c>
@@ -3643,7 +3675,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>44268</v>
       </c>
@@ -3693,7 +3725,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>44270</v>
       </c>
@@ -3743,7 +3775,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>44271</v>
       </c>
@@ -3793,7 +3825,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>44273</v>
       </c>
@@ -3843,7 +3875,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>44274</v>
       </c>
@@ -3893,7 +3925,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="64" spans="1:16">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>44276</v>
       </c>
@@ -3943,7 +3975,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="65" spans="1:16">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>44276</v>
       </c>
@@ -3981,7 +4013,7 @@
         <v>259</v>
       </c>
       <c r="M65">
-        <v>297.85</v>
+        <v>297.85000000000002</v>
       </c>
       <c r="N65">
         <v>21</v>
@@ -3993,7 +4025,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>44277</v>
       </c>
@@ -4025,13 +4057,13 @@
         <v>105</v>
       </c>
       <c r="K66">
-        <v>142.8</v>
+        <v>142.80000000000001</v>
       </c>
       <c r="L66">
         <v>840</v>
       </c>
       <c r="M66">
-        <v>1142.4</v>
+        <v>1142.4000000000001</v>
       </c>
       <c r="N66">
         <v>22</v>
@@ -4043,7 +4075,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>44277</v>
       </c>
@@ -4093,7 +4125,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>44280</v>
       </c>
@@ -4143,7 +4175,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>44280</v>
       </c>
@@ -4193,7 +4225,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>44280</v>
       </c>
@@ -4243,7 +4275,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>44280</v>
       </c>
@@ -4293,7 +4325,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>44281</v>
       </c>
@@ -4343,7 +4375,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>44281</v>
       </c>
@@ -4393,7 +4425,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>44281</v>
       </c>
@@ -4443,7 +4475,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>44282</v>
       </c>
@@ -4493,7 +4525,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>44283</v>
       </c>
@@ -4543,7 +4575,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>44285</v>
       </c>
@@ -4593,7 +4625,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="78" spans="1:16">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>44286</v>
       </c>
@@ -4643,7 +4675,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="79" spans="1:16">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>44290</v>
       </c>
@@ -4693,7 +4725,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>44290</v>
       </c>
@@ -4725,13 +4757,13 @@
         <v>6</v>
       </c>
       <c r="K80">
-        <v>7.859999999999999</v>
+        <v>7.8599999999999994</v>
       </c>
       <c r="L80">
         <v>54</v>
       </c>
       <c r="M80">
-        <v>70.73999999999999</v>
+        <v>70.739999999999995</v>
       </c>
       <c r="N80">
         <v>4</v>
@@ -4743,7 +4775,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>44291</v>
       </c>
@@ -4793,7 +4825,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="82" spans="1:16">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>44295</v>
       </c>
@@ -4825,7 +4857,7 @@
         <v>133</v>
       </c>
       <c r="K82">
-        <v>155.61</v>
+        <v>155.61000000000001</v>
       </c>
       <c r="L82">
         <v>399</v>
@@ -4843,7 +4875,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>44296</v>
       </c>
@@ -4893,7 +4925,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>44298</v>
       </c>
@@ -4925,13 +4957,13 @@
         <v>67</v>
       </c>
       <c r="K84">
-        <v>85.76000000000001</v>
+        <v>85.76</v>
       </c>
       <c r="L84">
         <v>201</v>
       </c>
       <c r="M84">
-        <v>257.28</v>
+        <v>257.27999999999997</v>
       </c>
       <c r="N84">
         <v>12</v>
@@ -4943,7 +4975,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>44298</v>
       </c>
@@ -4993,7 +5025,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>44298</v>
       </c>
@@ -5031,7 +5063,7 @@
         <v>432</v>
       </c>
       <c r="M86">
-        <v>514.08</v>
+        <v>514.08000000000004</v>
       </c>
       <c r="N86">
         <v>12</v>
@@ -5043,7 +5075,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="87" spans="1:16">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>44298</v>
       </c>
@@ -5093,7 +5125,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>44301</v>
       </c>
@@ -5143,7 +5175,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="89" spans="1:16">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>44302</v>
       </c>
@@ -5193,7 +5225,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="90" spans="1:16">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>44304</v>
       </c>
@@ -5243,7 +5275,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="91" spans="1:16">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>44304</v>
       </c>
@@ -5293,7 +5325,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="92" spans="1:16">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>44309</v>
       </c>
@@ -5343,7 +5375,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="93" spans="1:16">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>44309</v>
       </c>
@@ -5393,7 +5425,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="94" spans="1:16">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>44310</v>
       </c>
@@ -5443,7 +5475,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="95" spans="1:16">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>44312</v>
       </c>
@@ -5475,13 +5507,13 @@
         <v>67</v>
       </c>
       <c r="K95">
-        <v>85.76000000000001</v>
+        <v>85.76</v>
       </c>
       <c r="L95">
         <v>201</v>
       </c>
       <c r="M95">
-        <v>257.28</v>
+        <v>257.27999999999997</v>
       </c>
       <c r="N95">
         <v>26</v>
@@ -5493,7 +5525,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="96" spans="1:16">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>44315</v>
       </c>
@@ -5543,7 +5575,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="97" spans="1:16">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>44316</v>
       </c>
@@ -5593,7 +5625,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="98" spans="1:16">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>44317</v>
       </c>
@@ -5643,7 +5675,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>44317</v>
       </c>
@@ -5693,7 +5725,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="100" spans="1:16">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>44319</v>
       </c>
@@ -5743,7 +5775,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="101" spans="1:16">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>44320</v>
       </c>
@@ -5793,7 +5825,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="102" spans="1:16">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>44320</v>
       </c>
@@ -5843,7 +5875,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="103" spans="1:16">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>44321</v>
       </c>
@@ -5875,7 +5907,7 @@
         <v>6</v>
       </c>
       <c r="K103">
-        <v>7.859999999999999</v>
+        <v>7.8599999999999994</v>
       </c>
       <c r="L103">
         <v>78</v>
@@ -5893,7 +5925,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="104" spans="1:16">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>44322</v>
       </c>
@@ -5943,7 +5975,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="105" spans="1:16">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>44322</v>
       </c>
@@ -5975,7 +6007,7 @@
         <v>6</v>
       </c>
       <c r="K105">
-        <v>7.859999999999999</v>
+        <v>7.8599999999999994</v>
       </c>
       <c r="L105">
         <v>36</v>
@@ -5993,7 +6025,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="106" spans="1:16">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>44323</v>
       </c>
@@ -6043,7 +6075,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="107" spans="1:16">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>44325</v>
       </c>
@@ -6093,7 +6125,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="108" spans="1:16">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>44325</v>
       </c>
@@ -6143,7 +6175,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="109" spans="1:16">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>44328</v>
       </c>
@@ -6193,7 +6225,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="110" spans="1:16">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>44328</v>
       </c>
@@ -6243,7 +6275,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="111" spans="1:16">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>44329</v>
       </c>
@@ -6293,7 +6325,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="112" spans="1:16">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>44336</v>
       </c>
@@ -6343,7 +6375,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="113" spans="1:16">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>44339</v>
       </c>
@@ -6393,7 +6425,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="114" spans="1:16">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>44346</v>
       </c>
@@ -6443,7 +6475,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="115" spans="1:16">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>44346</v>
       </c>
@@ -6493,7 +6525,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="116" spans="1:16">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>44350</v>
       </c>
@@ -6543,7 +6575,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="117" spans="1:16">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>44351</v>
       </c>
@@ -6593,7 +6625,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="118" spans="1:16">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>44351</v>
       </c>
@@ -6643,7 +6675,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="119" spans="1:16">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>44352</v>
       </c>
@@ -6681,7 +6713,7 @@
         <v>1815</v>
       </c>
       <c r="M119">
-        <v>2123.55</v>
+        <v>2123.5500000000002</v>
       </c>
       <c r="N119">
         <v>5</v>
@@ -6693,7 +6725,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="120" spans="1:16">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>44352</v>
       </c>
@@ -6743,7 +6775,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="121" spans="1:16">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>44353</v>
       </c>
@@ -6793,7 +6825,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="122" spans="1:16">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>44355</v>
       </c>
@@ -6843,7 +6875,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="123" spans="1:16">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>44355</v>
       </c>
@@ -6893,7 +6925,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="124" spans="1:16">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A124">
         <v>44356</v>
       </c>
@@ -6943,7 +6975,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="125" spans="1:16">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A125">
         <v>44358</v>
       </c>
@@ -6993,7 +7025,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="126" spans="1:16">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A126">
         <v>44359</v>
       </c>
@@ -7043,7 +7075,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="127" spans="1:16">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>44361</v>
       </c>
@@ -7093,7 +7125,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="128" spans="1:16">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A128">
         <v>44363</v>
       </c>
@@ -7143,7 +7175,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="129" spans="1:16">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A129">
         <v>44363</v>
       </c>
@@ -7193,7 +7225,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="130" spans="1:16">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A130">
         <v>44363</v>
       </c>
@@ -7243,7 +7275,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="131" spans="1:16">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A131">
         <v>44365</v>
       </c>
@@ -7293,7 +7325,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="132" spans="1:16">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A132">
         <v>44366</v>
       </c>
@@ -7343,7 +7375,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="133" spans="1:16">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A133">
         <v>44367</v>
       </c>
@@ -7393,7 +7425,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="134" spans="1:16">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A134">
         <v>44370</v>
       </c>
@@ -7443,7 +7475,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="135" spans="1:16">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A135">
         <v>44371</v>
       </c>
@@ -7481,7 +7513,7 @@
         <v>572</v>
       </c>
       <c r="M135">
-        <v>629.1999999999999</v>
+        <v>629.19999999999993</v>
       </c>
       <c r="N135">
         <v>24</v>
@@ -7493,7 +7525,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="136" spans="1:16">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A136">
         <v>44373</v>
       </c>
@@ -7525,7 +7557,7 @@
         <v>6</v>
       </c>
       <c r="K136">
-        <v>7.859999999999999</v>
+        <v>7.8599999999999994</v>
       </c>
       <c r="L136">
         <v>42</v>
@@ -7543,7 +7575,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="137" spans="1:16">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A137">
         <v>44374</v>
       </c>
@@ -7575,7 +7607,7 @@
         <v>133</v>
       </c>
       <c r="K137">
-        <v>155.61</v>
+        <v>155.61000000000001</v>
       </c>
       <c r="L137">
         <v>1463</v>
@@ -7593,7 +7625,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="138" spans="1:16">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A138">
         <v>44375</v>
       </c>
@@ -7643,7 +7675,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="139" spans="1:16">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A139">
         <v>44375</v>
       </c>
@@ -7693,7 +7725,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="140" spans="1:16">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A140">
         <v>44376</v>
       </c>
@@ -7743,7 +7775,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="141" spans="1:16">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A141">
         <v>44378</v>
       </c>
@@ -7775,7 +7807,7 @@
         <v>133</v>
       </c>
       <c r="K141">
-        <v>155.61</v>
+        <v>155.61000000000001</v>
       </c>
       <c r="L141">
         <v>1463</v>
@@ -7793,7 +7825,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="142" spans="1:16">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A142">
         <v>44379</v>
       </c>
@@ -7843,7 +7875,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="143" spans="1:16">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A143">
         <v>44380</v>
       </c>
@@ -7893,7 +7925,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="144" spans="1:16">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A144">
         <v>44380</v>
       </c>
@@ -7943,7 +7975,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="145" spans="1:16">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A145">
         <v>44382</v>
       </c>
@@ -7975,13 +8007,13 @@
         <v>105</v>
       </c>
       <c r="K145">
-        <v>142.8</v>
+        <v>142.80000000000001</v>
       </c>
       <c r="L145">
         <v>840</v>
       </c>
       <c r="M145">
-        <v>1142.4</v>
+        <v>1142.4000000000001</v>
       </c>
       <c r="N145">
         <v>5</v>
@@ -7993,7 +8025,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="146" spans="1:16">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A146">
         <v>44383</v>
       </c>
@@ -8031,7 +8063,7 @@
         <v>2070</v>
       </c>
       <c r="M146">
-        <v>2608.2</v>
+        <v>2608.1999999999998</v>
       </c>
       <c r="N146">
         <v>6</v>
@@ -8043,7 +8075,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="147" spans="1:16">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A147">
         <v>44385</v>
       </c>
@@ -8093,7 +8125,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="148" spans="1:16">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A148">
         <v>44387</v>
       </c>
@@ -8143,7 +8175,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="149" spans="1:16">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A149">
         <v>44388</v>
       </c>
@@ -8175,7 +8207,7 @@
         <v>6</v>
       </c>
       <c r="K149">
-        <v>7.859999999999999</v>
+        <v>7.8599999999999994</v>
       </c>
       <c r="L149">
         <v>24</v>
@@ -8193,7 +8225,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="150" spans="1:16">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A150">
         <v>44390</v>
       </c>
@@ -8243,7 +8275,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="151" spans="1:16">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A151">
         <v>44393</v>
       </c>
@@ -8293,7 +8325,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="152" spans="1:16">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A152">
         <v>44395</v>
       </c>
@@ -8331,7 +8363,7 @@
         <v>672</v>
       </c>
       <c r="M152">
-        <v>799.6800000000001</v>
+        <v>799.68000000000006</v>
       </c>
       <c r="N152">
         <v>18</v>
@@ -8343,7 +8375,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="153" spans="1:16">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A153">
         <v>44397</v>
       </c>
@@ -8393,7 +8425,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="154" spans="1:16">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A154">
         <v>44397</v>
       </c>
@@ -8443,7 +8475,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="155" spans="1:16">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A155">
         <v>44398</v>
       </c>
@@ -8493,7 +8525,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="156" spans="1:16">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A156">
         <v>44399</v>
       </c>
@@ -8543,7 +8575,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="157" spans="1:16">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A157">
         <v>44399</v>
       </c>
@@ -8593,7 +8625,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="158" spans="1:16">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A158">
         <v>44400</v>
       </c>
@@ -8643,7 +8675,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="159" spans="1:16">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A159">
         <v>44400</v>
       </c>
@@ -8675,7 +8707,7 @@
         <v>67</v>
       </c>
       <c r="K159">
-        <v>85.76000000000001</v>
+        <v>85.76</v>
       </c>
       <c r="L159">
         <v>536</v>
@@ -8693,7 +8725,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="160" spans="1:16">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A160">
         <v>44401</v>
       </c>
@@ -8725,7 +8757,7 @@
         <v>6</v>
       </c>
       <c r="K160">
-        <v>7.859999999999999</v>
+        <v>7.8599999999999994</v>
       </c>
       <c r="L160">
         <v>24</v>
@@ -8743,7 +8775,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="161" spans="1:16">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A161">
         <v>44406</v>
       </c>
@@ -8793,7 +8825,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="162" spans="1:16">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A162">
         <v>44409</v>
       </c>
@@ -8843,7 +8875,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="163" spans="1:16">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A163">
         <v>44410</v>
       </c>
@@ -8893,7 +8925,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="164" spans="1:16">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A164">
         <v>44411</v>
       </c>
@@ -8943,7 +8975,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="165" spans="1:16">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A165">
         <v>44411</v>
       </c>
@@ -8981,7 +9013,7 @@
         <v>660</v>
       </c>
       <c r="M165">
-        <v>699.5999999999999</v>
+        <v>699.59999999999991</v>
       </c>
       <c r="N165">
         <v>3</v>
@@ -8993,7 +9025,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="166" spans="1:16">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A166">
         <v>44413</v>
       </c>
@@ -9043,7 +9075,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="167" spans="1:16">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A167">
         <v>44414</v>
       </c>
@@ -9075,13 +9107,13 @@
         <v>67</v>
       </c>
       <c r="K167">
-        <v>85.76000000000001</v>
+        <v>85.76</v>
       </c>
       <c r="L167">
         <v>67</v>
       </c>
       <c r="M167">
-        <v>85.76000000000001</v>
+        <v>85.76</v>
       </c>
       <c r="N167">
         <v>6</v>
@@ -9093,7 +9125,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="168" spans="1:16">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A168">
         <v>44418</v>
       </c>
@@ -9125,13 +9157,13 @@
         <v>133</v>
       </c>
       <c r="K168">
-        <v>155.61</v>
+        <v>155.61000000000001</v>
       </c>
       <c r="L168">
         <v>532</v>
       </c>
       <c r="M168">
-        <v>622.4400000000001</v>
+        <v>622.44000000000005</v>
       </c>
       <c r="N168">
         <v>10</v>
@@ -9143,7 +9175,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="169" spans="1:16">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A169">
         <v>44418</v>
       </c>
@@ -9193,7 +9225,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="170" spans="1:16">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A170">
         <v>44418</v>
       </c>
@@ -9243,7 +9275,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="171" spans="1:16">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A171">
         <v>44419</v>
       </c>
@@ -9293,7 +9325,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="172" spans="1:16">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A172">
         <v>44421</v>
       </c>
@@ -9331,7 +9363,7 @@
         <v>572</v>
       </c>
       <c r="M172">
-        <v>629.1999999999999</v>
+        <v>629.19999999999993</v>
       </c>
       <c r="N172">
         <v>13</v>
@@ -9343,7 +9375,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="173" spans="1:16">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A173">
         <v>44421</v>
       </c>
@@ -9381,7 +9413,7 @@
         <v>432</v>
       </c>
       <c r="M173">
-        <v>514.08</v>
+        <v>514.08000000000004</v>
       </c>
       <c r="N173">
         <v>13</v>
@@ -9393,7 +9425,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="174" spans="1:16">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A174">
         <v>44424</v>
       </c>
@@ -9443,7 +9475,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="175" spans="1:16">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A175">
         <v>44426</v>
       </c>
@@ -9493,7 +9525,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="176" spans="1:16">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A176">
         <v>44428</v>
       </c>
@@ -9543,7 +9575,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="177" spans="1:16">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A177">
         <v>44428</v>
       </c>
@@ -9581,7 +9613,7 @@
         <v>837</v>
       </c>
       <c r="M177">
-        <v>937.4399999999999</v>
+        <v>937.43999999999994</v>
       </c>
       <c r="N177">
         <v>20</v>
@@ -9593,7 +9625,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="178" spans="1:16">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A178">
         <v>44428</v>
       </c>
@@ -9643,7 +9675,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="179" spans="1:16">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A179">
         <v>44434</v>
       </c>
@@ -9693,7 +9725,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="180" spans="1:16">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A180">
         <v>44437</v>
       </c>
@@ -9731,7 +9763,7 @@
         <v>660</v>
       </c>
       <c r="M180">
-        <v>699.5999999999999</v>
+        <v>699.59999999999991</v>
       </c>
       <c r="N180">
         <v>29</v>
@@ -9743,7 +9775,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="181" spans="1:16">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A181">
         <v>44438</v>
       </c>
@@ -9793,7 +9825,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="182" spans="1:16">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A182">
         <v>44439</v>
       </c>
@@ -9843,7 +9875,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="183" spans="1:16">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A183">
         <v>44439</v>
       </c>
@@ -9893,7 +9925,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="184" spans="1:16">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A184">
         <v>44440</v>
       </c>
@@ -9943,7 +9975,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="185" spans="1:16">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A185">
         <v>44440</v>
       </c>
@@ -9981,7 +10013,7 @@
         <v>994</v>
       </c>
       <c r="M185">
-        <v>1133.16</v>
+        <v>1133.1600000000001</v>
       </c>
       <c r="N185">
         <v>1</v>
@@ -9993,7 +10025,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="186" spans="1:16">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A186">
         <v>44442</v>
       </c>
@@ -10043,7 +10075,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="187" spans="1:16">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A187">
         <v>44443</v>
       </c>
@@ -10093,7 +10125,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="188" spans="1:16">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A188">
         <v>44443</v>
       </c>
@@ -10143,7 +10175,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="189" spans="1:16">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A189">
         <v>44444</v>
       </c>
@@ -10193,7 +10225,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="190" spans="1:16">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A190">
         <v>44446</v>
       </c>
@@ -10243,7 +10275,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="191" spans="1:16">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A191">
         <v>44448</v>
       </c>
@@ -10293,7 +10325,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="192" spans="1:16">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A192">
         <v>44449</v>
       </c>
@@ -10343,7 +10375,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="193" spans="1:16">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A193">
         <v>44449</v>
       </c>
@@ -10393,7 +10425,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="194" spans="1:16">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A194">
         <v>44449</v>
       </c>
@@ -10443,7 +10475,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="195" spans="1:16">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A195">
         <v>44450</v>
       </c>
@@ -10493,7 +10525,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="196" spans="1:16">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A196">
         <v>44452</v>
       </c>
@@ -10531,7 +10563,7 @@
         <v>966</v>
       </c>
       <c r="M196">
-        <v>1217.16</v>
+        <v>1217.1600000000001</v>
       </c>
       <c r="N196">
         <v>13</v>
@@ -10543,7 +10575,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="197" spans="1:16">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A197">
         <v>44454</v>
       </c>
@@ -10593,7 +10625,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="198" spans="1:16">
+    <row r="198" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A198">
         <v>44454</v>
       </c>
@@ -10643,7 +10675,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="199" spans="1:16">
+    <row r="199" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A199">
         <v>44460</v>
       </c>
@@ -10693,7 +10725,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="200" spans="1:16">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A200">
         <v>44461</v>
       </c>
@@ -10743,7 +10775,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="201" spans="1:16">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A201">
         <v>44461</v>
       </c>
@@ -10775,13 +10807,13 @@
         <v>105</v>
       </c>
       <c r="K201">
-        <v>142.8</v>
+        <v>142.80000000000001</v>
       </c>
       <c r="L201">
         <v>420</v>
       </c>
       <c r="M201">
-        <v>571.2</v>
+        <v>571.20000000000005</v>
       </c>
       <c r="N201">
         <v>22</v>
@@ -10793,7 +10825,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="202" spans="1:16">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A202">
         <v>44462</v>
       </c>
@@ -10843,7 +10875,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="203" spans="1:16">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A203">
         <v>44462</v>
       </c>
@@ -10893,7 +10925,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="204" spans="1:16">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A204">
         <v>44466</v>
       </c>
@@ -10943,7 +10975,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="205" spans="1:16">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A205">
         <v>44469</v>
       </c>
@@ -10993,7 +11025,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="206" spans="1:16">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A206">
         <v>44469</v>
       </c>
@@ -11043,7 +11075,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="207" spans="1:16">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A207">
         <v>44470</v>
       </c>
@@ -11093,7 +11125,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="208" spans="1:16">
+    <row r="208" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A208">
         <v>44471</v>
       </c>
@@ -11131,7 +11163,7 @@
         <v>1680</v>
       </c>
       <c r="M208">
-        <v>2200.8</v>
+        <v>2200.8000000000002</v>
       </c>
       <c r="N208">
         <v>2</v>
@@ -11143,7 +11175,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="209" spans="1:16">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A209">
         <v>44472</v>
       </c>
@@ -11193,7 +11225,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="210" spans="1:16">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A210">
         <v>44475</v>
       </c>
@@ -11243,7 +11275,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="211" spans="1:16">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A211">
         <v>44475</v>
       </c>
@@ -11281,7 +11313,7 @@
         <v>1080</v>
       </c>
       <c r="M211">
-        <v>1155.6</v>
+        <v>1155.5999999999999</v>
       </c>
       <c r="N211">
         <v>6</v>
@@ -11293,7 +11325,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="212" spans="1:16">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A212">
         <v>44476</v>
       </c>
@@ -11343,7 +11375,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="213" spans="1:16">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A213">
         <v>44478</v>
       </c>
@@ -11393,7 +11425,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="214" spans="1:16">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A214">
         <v>44478</v>
       </c>
@@ -11443,7 +11475,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="215" spans="1:16">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A215">
         <v>44479</v>
       </c>
@@ -11493,7 +11525,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="216" spans="1:16">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A216">
         <v>44480</v>
       </c>
@@ -11543,7 +11575,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="217" spans="1:16">
+    <row r="217" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A217">
         <v>44481</v>
       </c>
@@ -11593,7 +11625,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="218" spans="1:16">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A218">
         <v>44486</v>
       </c>
@@ -11643,7 +11675,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="219" spans="1:16">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A219">
         <v>44487</v>
       </c>
@@ -11693,7 +11725,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="220" spans="1:16">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A220">
         <v>44487</v>
       </c>
@@ -11743,7 +11775,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="221" spans="1:16">
+    <row r="221" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A221">
         <v>44491</v>
       </c>
@@ -11793,7 +11825,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="222" spans="1:16">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A222">
         <v>44491</v>
       </c>
@@ -11843,7 +11875,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="223" spans="1:16">
+    <row r="223" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A223">
         <v>44491</v>
       </c>
@@ -11875,13 +11907,13 @@
         <v>6</v>
       </c>
       <c r="K223">
-        <v>7.859999999999999</v>
+        <v>7.8599999999999994</v>
       </c>
       <c r="L223">
         <v>6</v>
       </c>
       <c r="M223">
-        <v>7.859999999999999</v>
+        <v>7.8599999999999994</v>
       </c>
       <c r="N223">
         <v>22</v>
@@ -11893,7 +11925,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="224" spans="1:16">
+    <row r="224" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A224">
         <v>44493</v>
       </c>
@@ -11931,7 +11963,7 @@
         <v>132</v>
       </c>
       <c r="M224">
-        <v>145.2</v>
+        <v>145.19999999999999</v>
       </c>
       <c r="N224">
         <v>24</v>
@@ -11943,7 +11975,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="225" spans="1:16">
+    <row r="225" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A225">
         <v>44494</v>
       </c>
@@ -11993,7 +12025,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="226" spans="1:16">
+    <row r="226" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A226">
         <v>44495</v>
       </c>
@@ -12031,7 +12063,7 @@
         <v>264</v>
       </c>
       <c r="M226">
-        <v>293.04</v>
+        <v>293.04000000000002</v>
       </c>
       <c r="N226">
         <v>26</v>
@@ -12043,7 +12075,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="227" spans="1:16">
+    <row r="227" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A227">
         <v>44497</v>
       </c>
@@ -12093,7 +12125,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="228" spans="1:16">
+    <row r="228" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A228">
         <v>44498</v>
       </c>
@@ -12131,7 +12163,7 @@
         <v>1008</v>
       </c>
       <c r="M228">
-        <v>1118.88</v>
+        <v>1118.8800000000001</v>
       </c>
       <c r="N228">
         <v>29</v>
@@ -12143,7 +12175,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="229" spans="1:16">
+    <row r="229" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A229">
         <v>44500</v>
       </c>
@@ -12193,7 +12225,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="230" spans="1:16">
+    <row r="230" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A230">
         <v>44503</v>
       </c>
@@ -12243,7 +12275,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="231" spans="1:16">
+    <row r="231" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A231">
         <v>44506</v>
       </c>
@@ -12293,7 +12325,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="232" spans="1:16">
+    <row r="232" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A232">
         <v>44508</v>
       </c>
@@ -12343,7 +12375,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="233" spans="1:16">
+    <row r="233" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A233">
         <v>44510</v>
       </c>
@@ -12393,7 +12425,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="234" spans="1:16">
+    <row r="234" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A234">
         <v>44511</v>
       </c>
@@ -12443,7 +12475,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="235" spans="1:16">
+    <row r="235" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A235">
         <v>44512</v>
       </c>
@@ -12493,7 +12525,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="236" spans="1:16">
+    <row r="236" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A236">
         <v>44520</v>
       </c>
@@ -12531,7 +12563,7 @@
         <v>770</v>
       </c>
       <c r="M236">
-        <v>816.1999999999999</v>
+        <v>816.19999999999993</v>
       </c>
       <c r="N236">
         <v>20</v>
@@ -12543,7 +12575,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="237" spans="1:16">
+    <row r="237" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A237">
         <v>44520</v>
       </c>
@@ -12593,7 +12625,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="238" spans="1:16">
+    <row r="238" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A238">
         <v>44521</v>
       </c>
@@ -12643,7 +12675,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="239" spans="1:16">
+    <row r="239" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A239">
         <v>44521</v>
       </c>
@@ -12693,7 +12725,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="240" spans="1:16">
+    <row r="240" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A240">
         <v>44527</v>
       </c>
@@ -12743,7 +12775,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="241" spans="1:16">
+    <row r="241" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A241">
         <v>44528</v>
       </c>
@@ -12793,7 +12825,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="242" spans="1:16">
+    <row r="242" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A242">
         <v>44530</v>
       </c>
@@ -12843,7 +12875,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="243" spans="1:16">
+    <row r="243" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A243">
         <v>44532</v>
       </c>
@@ -12893,7 +12925,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="244" spans="1:16">
+    <row r="244" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A244">
         <v>44533</v>
       </c>
@@ -12943,7 +12975,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="245" spans="1:16">
+    <row r="245" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A245">
         <v>44533</v>
       </c>
@@ -12993,7 +13025,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="246" spans="1:16">
+    <row r="246" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A246">
         <v>44535</v>
       </c>
@@ -13043,7 +13075,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="247" spans="1:16">
+    <row r="247" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A247">
         <v>44535</v>
       </c>
@@ -13093,7 +13125,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="248" spans="1:16">
+    <row r="248" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A248">
         <v>44537</v>
       </c>
@@ -13143,7 +13175,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="249" spans="1:16">
+    <row r="249" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A249">
         <v>44538</v>
       </c>
@@ -13181,7 +13213,7 @@
         <v>1064</v>
       </c>
       <c r="M249">
-        <v>1149.12</v>
+        <v>1149.1199999999999</v>
       </c>
       <c r="N249">
         <v>8</v>
@@ -13193,7 +13225,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="250" spans="1:16">
+    <row r="250" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A250">
         <v>44544</v>
       </c>
@@ -13243,7 +13275,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="251" spans="1:16">
+    <row r="251" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A251">
         <v>44548</v>
       </c>
@@ -13293,7 +13325,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="252" spans="1:16">
+    <row r="252" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A252">
         <v>44548</v>
       </c>
@@ -13343,7 +13375,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="253" spans="1:16">
+    <row r="253" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A253">
         <v>44549</v>
       </c>
@@ -13393,7 +13425,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="254" spans="1:16">
+    <row r="254" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A254">
         <v>44549</v>
       </c>
@@ -13431,7 +13463,7 @@
         <v>141</v>
       </c>
       <c r="M254">
-        <v>159.33</v>
+        <v>159.33000000000001</v>
       </c>
       <c r="N254">
         <v>19</v>
@@ -13443,7 +13475,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="255" spans="1:16">
+    <row r="255" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A255">
         <v>44549</v>
       </c>
@@ -13493,7 +13525,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="256" spans="1:16">
+    <row r="256" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A256">
         <v>44550</v>
       </c>
@@ -13543,7 +13575,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="257" spans="1:16">
+    <row r="257" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A257">
         <v>44551</v>
       </c>
@@ -13593,7 +13625,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="258" spans="1:16">
+    <row r="258" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A258">
         <v>44554</v>
       </c>
@@ -13643,7 +13675,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="259" spans="1:16">
+    <row r="259" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A259">
         <v>44554</v>
       </c>
@@ -13693,7 +13725,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="260" spans="1:16">
+    <row r="260" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A260">
         <v>44556</v>
       </c>
@@ -13731,7 +13763,7 @@
         <v>1932</v>
       </c>
       <c r="M260">
-        <v>2434.32</v>
+        <v>2434.3200000000002</v>
       </c>
       <c r="N260">
         <v>26</v>
@@ -13743,7 +13775,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="261" spans="1:16">
+    <row r="261" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A261">
         <v>44557</v>
       </c>
@@ -13793,7 +13825,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="262" spans="1:16">
+    <row r="262" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A262">
         <v>44558</v>
       </c>
@@ -13831,7 +13863,7 @@
         <v>282</v>
       </c>
       <c r="M262">
-        <v>318.66</v>
+        <v>318.66000000000003</v>
       </c>
       <c r="N262">
         <v>28</v>
@@ -13843,7 +13875,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="263" spans="1:16">
+    <row r="263" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A263">
         <v>44560</v>
       </c>
@@ -13893,7 +13925,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="264" spans="1:16">
+    <row r="264" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A264">
         <v>44562</v>
       </c>
@@ -13943,7 +13975,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="265" spans="1:16">
+    <row r="265" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A265">
         <v>44563</v>
       </c>
@@ -13993,7 +14025,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="266" spans="1:16">
+    <row r="266" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A266">
         <v>44563</v>
       </c>
@@ -14043,7 +14075,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="267" spans="1:16">
+    <row r="267" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A267">
         <v>44563</v>
       </c>
@@ -14093,7 +14125,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="268" spans="1:16">
+    <row r="268" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A268">
         <v>44564</v>
       </c>
@@ -14143,7 +14175,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="269" spans="1:16">
+    <row r="269" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A269">
         <v>44565</v>
       </c>
@@ -14193,7 +14225,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="270" spans="1:16">
+    <row r="270" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A270">
         <v>44565</v>
       </c>
@@ -14243,7 +14275,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="271" spans="1:16">
+    <row r="271" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A271">
         <v>44570</v>
       </c>
@@ -14293,7 +14325,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="272" spans="1:16">
+    <row r="272" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A272">
         <v>44571</v>
       </c>
@@ -14331,7 +14363,7 @@
         <v>770</v>
       </c>
       <c r="M272">
-        <v>816.1999999999999</v>
+        <v>816.19999999999993</v>
       </c>
       <c r="N272">
         <v>10</v>
@@ -14343,7 +14375,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="273" spans="1:16">
+    <row r="273" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A273">
         <v>44572</v>
       </c>
@@ -14393,7 +14425,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="274" spans="1:16">
+    <row r="274" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A274">
         <v>44574</v>
       </c>
@@ -14443,7 +14475,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="275" spans="1:16">
+    <row r="275" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A275">
         <v>44575</v>
       </c>
@@ -14493,7 +14525,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="276" spans="1:16">
+    <row r="276" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A276">
         <v>44576</v>
       </c>
@@ -14543,7 +14575,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="277" spans="1:16">
+    <row r="277" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A277">
         <v>44577</v>
       </c>
@@ -14593,7 +14625,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="278" spans="1:16">
+    <row r="278" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A278">
         <v>44578</v>
       </c>
@@ -14643,7 +14675,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="279" spans="1:16">
+    <row r="279" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A279">
         <v>44579</v>
       </c>
@@ -14693,7 +14725,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="280" spans="1:16">
+    <row r="280" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A280">
         <v>44581</v>
       </c>
@@ -14743,7 +14775,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="281" spans="1:16">
+    <row r="281" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A281">
         <v>44581</v>
       </c>
@@ -14793,7 +14825,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="282" spans="1:16">
+    <row r="282" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A282">
         <v>44583</v>
       </c>
@@ -14843,7 +14875,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="283" spans="1:16">
+    <row r="283" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A283">
         <v>44584</v>
       </c>
@@ -14875,7 +14907,7 @@
         <v>105</v>
       </c>
       <c r="K283">
-        <v>142.8</v>
+        <v>142.80000000000001</v>
       </c>
       <c r="L283">
         <v>525</v>
@@ -14893,7 +14925,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="284" spans="1:16">
+    <row r="284" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A284">
         <v>44584</v>
       </c>
@@ -14943,7 +14975,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="285" spans="1:16">
+    <row r="285" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A285">
         <v>44585</v>
       </c>
@@ -14993,7 +15025,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="286" spans="1:16">
+    <row r="286" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A286">
         <v>44586</v>
       </c>
@@ -15043,7 +15075,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="287" spans="1:16">
+    <row r="287" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A287">
         <v>44589</v>
       </c>
@@ -15093,7 +15125,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="288" spans="1:16">
+    <row r="288" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A288">
         <v>44592</v>
       </c>
@@ -15143,7 +15175,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="289" spans="1:16">
+    <row r="289" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A289">
         <v>44592</v>
       </c>
@@ -15193,7 +15225,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="290" spans="1:16">
+    <row r="290" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A290">
         <v>44593</v>
       </c>
@@ -15225,7 +15257,7 @@
         <v>133</v>
       </c>
       <c r="K290">
-        <v>155.61</v>
+        <v>155.61000000000001</v>
       </c>
       <c r="L290">
         <v>1197</v>
@@ -15243,7 +15275,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="291" spans="1:16">
+    <row r="291" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A291">
         <v>44595</v>
       </c>
@@ -15293,7 +15325,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="292" spans="1:16">
+    <row r="292" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A292">
         <v>44597</v>
       </c>
@@ -15343,7 +15375,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="293" spans="1:16">
+    <row r="293" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A293">
         <v>44598</v>
       </c>
@@ -15375,13 +15407,13 @@
         <v>105</v>
       </c>
       <c r="K293">
-        <v>142.8</v>
+        <v>142.80000000000001</v>
       </c>
       <c r="L293">
         <v>630</v>
       </c>
       <c r="M293">
-        <v>856.8000000000001</v>
+        <v>856.80000000000007</v>
       </c>
       <c r="N293">
         <v>6</v>
@@ -15393,7 +15425,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="294" spans="1:16">
+    <row r="294" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A294">
         <v>44600</v>
       </c>
@@ -15425,7 +15457,7 @@
         <v>133</v>
       </c>
       <c r="K294">
-        <v>155.61</v>
+        <v>155.61000000000001</v>
       </c>
       <c r="L294">
         <v>1463</v>
@@ -15443,7 +15475,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="295" spans="1:16">
+    <row r="295" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A295">
         <v>44600</v>
       </c>
@@ -15481,7 +15513,7 @@
         <v>132</v>
       </c>
       <c r="M295">
-        <v>146.52</v>
+        <v>146.52000000000001</v>
       </c>
       <c r="N295">
         <v>8</v>
@@ -15493,7 +15525,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="296" spans="1:16">
+    <row r="296" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A296">
         <v>44601</v>
       </c>
@@ -15543,7 +15575,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="297" spans="1:16">
+    <row r="297" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A297">
         <v>44604</v>
       </c>
@@ -15593,7 +15625,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="298" spans="1:16">
+    <row r="298" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A298">
         <v>44606</v>
       </c>
@@ -15643,7 +15675,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="299" spans="1:16">
+    <row r="299" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A299">
         <v>44606</v>
       </c>
@@ -15693,7 +15725,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="300" spans="1:16">
+    <row r="300" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A300">
         <v>44608</v>
       </c>
@@ -15743,7 +15775,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="301" spans="1:16">
+    <row r="301" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A301">
         <v>44611</v>
       </c>
@@ -15775,7 +15807,7 @@
         <v>105</v>
       </c>
       <c r="K301">
-        <v>142.8</v>
+        <v>142.80000000000001</v>
       </c>
       <c r="L301">
         <v>1365</v>
@@ -15793,7 +15825,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="302" spans="1:16">
+    <row r="302" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A302">
         <v>44612</v>
       </c>
@@ -15843,7 +15875,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="303" spans="1:16">
+    <row r="303" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A303">
         <v>44615</v>
       </c>
@@ -15893,7 +15925,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="304" spans="1:16">
+    <row r="304" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A304">
         <v>44615</v>
       </c>
@@ -15943,7 +15975,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="305" spans="1:16">
+    <row r="305" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A305">
         <v>44615</v>
       </c>
@@ -15993,7 +16025,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="306" spans="1:16">
+    <row r="306" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A306">
         <v>44619</v>
       </c>
@@ -16031,7 +16063,7 @@
         <v>511</v>
       </c>
       <c r="M306">
-        <v>659.1900000000001</v>
+        <v>659.19</v>
       </c>
       <c r="N306">
         <v>27</v>
@@ -16043,7 +16075,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="307" spans="1:16">
+    <row r="307" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A307">
         <v>44619</v>
       </c>
@@ -16075,7 +16107,7 @@
         <v>133</v>
       </c>
       <c r="K307">
-        <v>155.61</v>
+        <v>155.61000000000001</v>
       </c>
       <c r="L307">
         <v>1995</v>
@@ -16093,7 +16125,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="308" spans="1:16">
+    <row r="308" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A308">
         <v>44620</v>
       </c>
@@ -16125,13 +16157,13 @@
         <v>67</v>
       </c>
       <c r="K308">
-        <v>85.76000000000001</v>
+        <v>85.76</v>
       </c>
       <c r="L308">
         <v>1005</v>
       </c>
       <c r="M308">
-        <v>1286.4</v>
+        <v>1286.4000000000001</v>
       </c>
       <c r="N308">
         <v>28</v>
@@ -16143,7 +16175,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="309" spans="1:16">
+    <row r="309" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A309">
         <v>44624</v>
       </c>
@@ -16193,7 +16225,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="310" spans="1:16">
+    <row r="310" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A310">
         <v>44626</v>
       </c>
@@ -16231,7 +16263,7 @@
         <v>88</v>
       </c>
       <c r="M310">
-        <v>97.68000000000001</v>
+        <v>97.68</v>
       </c>
       <c r="N310">
         <v>6</v>
@@ -16243,7 +16275,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="311" spans="1:16">
+    <row r="311" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A311">
         <v>44627</v>
       </c>
@@ -16293,7 +16325,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="312" spans="1:16">
+    <row r="312" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A312">
         <v>44628</v>
       </c>
@@ -16343,7 +16375,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="313" spans="1:16">
+    <row r="313" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A313">
         <v>44629</v>
       </c>
@@ -16393,7 +16425,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="314" spans="1:16">
+    <row r="314" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A314">
         <v>44629</v>
       </c>
@@ -16443,7 +16475,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="315" spans="1:16">
+    <row r="315" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A315">
         <v>44630</v>
       </c>
@@ -16493,7 +16525,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="316" spans="1:16">
+    <row r="316" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A316">
         <v>44634</v>
       </c>
@@ -16543,7 +16575,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="317" spans="1:16">
+    <row r="317" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A317">
         <v>44634</v>
       </c>
@@ -16593,7 +16625,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="318" spans="1:16">
+    <row r="318" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A318">
         <v>44638</v>
       </c>
@@ -16643,7 +16675,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="319" spans="1:16">
+    <row r="319" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A319">
         <v>44638</v>
       </c>
@@ -16681,7 +16713,7 @@
         <v>480</v>
       </c>
       <c r="M319">
-        <v>571.2</v>
+        <v>571.20000000000005</v>
       </c>
       <c r="N319">
         <v>18</v>
@@ -16693,7 +16725,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="320" spans="1:16">
+    <row r="320" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A320">
         <v>44639</v>
       </c>
@@ -16743,7 +16775,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="321" spans="1:16">
+    <row r="321" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A321">
         <v>44643</v>
       </c>
@@ -16793,7 +16825,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="322" spans="1:16">
+    <row r="322" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A322">
         <v>44645</v>
       </c>
@@ -16843,7 +16875,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="323" spans="1:16">
+    <row r="323" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A323">
         <v>44645</v>
       </c>
@@ -16893,7 +16925,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="324" spans="1:16">
+    <row r="324" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A324">
         <v>44649</v>
       </c>
@@ -16943,7 +16975,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="325" spans="1:16">
+    <row r="325" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A325">
         <v>44650</v>
       </c>
@@ -16993,7 +17025,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="326" spans="1:16">
+    <row r="326" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A326">
         <v>44652</v>
       </c>
@@ -17025,13 +17057,13 @@
         <v>105</v>
       </c>
       <c r="K326">
-        <v>142.8</v>
+        <v>142.80000000000001</v>
       </c>
       <c r="L326">
         <v>210</v>
       </c>
       <c r="M326">
-        <v>285.6</v>
+        <v>285.60000000000002</v>
       </c>
       <c r="N326">
         <v>1</v>
@@ -17043,7 +17075,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="327" spans="1:16">
+    <row r="327" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A327">
         <v>44653</v>
       </c>
@@ -17075,7 +17107,7 @@
         <v>105</v>
       </c>
       <c r="K327">
-        <v>142.8</v>
+        <v>142.80000000000001</v>
       </c>
       <c r="L327">
         <v>315</v>
@@ -17093,7 +17125,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="328" spans="1:16">
+    <row r="328" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A328">
         <v>44657</v>
       </c>
@@ -17143,7 +17175,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="329" spans="1:16">
+    <row r="329" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A329">
         <v>44658</v>
       </c>
@@ -17193,7 +17225,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="330" spans="1:16">
+    <row r="330" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A330">
         <v>44660</v>
       </c>
@@ -17243,7 +17275,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="331" spans="1:16">
+    <row r="331" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A331">
         <v>44660</v>
       </c>
@@ -17275,7 +17307,7 @@
         <v>105</v>
       </c>
       <c r="K331">
-        <v>142.8</v>
+        <v>142.80000000000001</v>
       </c>
       <c r="L331">
         <v>945</v>
@@ -17293,7 +17325,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="332" spans="1:16">
+    <row r="332" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A332">
         <v>44664</v>
       </c>
@@ -17343,7 +17375,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="333" spans="1:16">
+    <row r="333" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A333">
         <v>44669</v>
       </c>
@@ -17393,7 +17425,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="334" spans="1:16">
+    <row r="334" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A334">
         <v>44671</v>
       </c>
@@ -17443,7 +17475,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="335" spans="1:16">
+    <row r="335" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A335">
         <v>44671</v>
       </c>
@@ -17493,7 +17525,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="336" spans="1:16">
+    <row r="336" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A336">
         <v>44672</v>
       </c>
@@ -17543,7 +17575,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="337" spans="1:16">
+    <row r="337" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A337">
         <v>44672</v>
       </c>
@@ -17593,7 +17625,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="338" spans="1:16">
+    <row r="338" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A338">
         <v>44674</v>
       </c>
@@ -17643,7 +17675,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="339" spans="1:16">
+    <row r="339" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A339">
         <v>44675</v>
       </c>
@@ -17693,7 +17725,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="340" spans="1:16">
+    <row r="340" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A340">
         <v>44676</v>
       </c>
@@ -17731,7 +17763,7 @@
         <v>396</v>
       </c>
       <c r="M340">
-        <v>439.5600000000001</v>
+        <v>439.56000000000012</v>
       </c>
       <c r="N340">
         <v>25</v>
@@ -17743,7 +17775,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="341" spans="1:16">
+    <row r="341" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A341">
         <v>44676</v>
       </c>
@@ -17793,7 +17825,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="342" spans="1:16">
+    <row r="342" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A342">
         <v>44677</v>
       </c>
@@ -17843,7 +17875,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="343" spans="1:16">
+    <row r="343" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A343">
         <v>44679</v>
       </c>
@@ -17893,7 +17925,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="344" spans="1:16">
+    <row r="344" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A344">
         <v>44681</v>
       </c>
@@ -17943,7 +17975,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="345" spans="1:16">
+    <row r="345" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A345">
         <v>44681</v>
       </c>
@@ -17993,7 +18025,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="346" spans="1:16">
+    <row r="346" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A346">
         <v>44682</v>
       </c>
@@ -18031,7 +18063,7 @@
         <v>495</v>
       </c>
       <c r="M346">
-        <v>524.6999999999999</v>
+        <v>524.69999999999993</v>
       </c>
       <c r="N346">
         <v>1</v>
@@ -18043,7 +18075,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="347" spans="1:16">
+    <row r="347" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A347">
         <v>44682</v>
       </c>
@@ -18093,7 +18125,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="348" spans="1:16">
+    <row r="348" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A348">
         <v>44683</v>
       </c>
@@ -18143,7 +18175,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="349" spans="1:16">
+    <row r="349" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A349">
         <v>44685</v>
       </c>
@@ -18193,7 +18225,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="350" spans="1:16">
+    <row r="350" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A350">
         <v>44687</v>
       </c>
@@ -18243,7 +18275,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="351" spans="1:16">
+    <row r="351" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A351">
         <v>44688</v>
       </c>
@@ -18293,7 +18325,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="352" spans="1:16">
+    <row r="352" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A352">
         <v>44688</v>
       </c>
@@ -18343,7 +18375,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="353" spans="1:16">
+    <row r="353" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A353">
         <v>44689</v>
       </c>
@@ -18393,7 +18425,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="354" spans="1:16">
+    <row r="354" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A354">
         <v>44690</v>
       </c>
@@ -18443,7 +18475,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="355" spans="1:16">
+    <row r="355" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A355">
         <v>44691</v>
       </c>
@@ -18475,7 +18507,7 @@
         <v>6</v>
       </c>
       <c r="K355">
-        <v>7.859999999999999</v>
+        <v>7.8599999999999994</v>
       </c>
       <c r="L355">
         <v>36</v>
@@ -18493,7 +18525,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="356" spans="1:16">
+    <row r="356" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A356">
         <v>44693</v>
       </c>
@@ -18543,7 +18575,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="357" spans="1:16">
+    <row r="357" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A357">
         <v>44694</v>
       </c>
@@ -18593,7 +18625,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="358" spans="1:16">
+    <row r="358" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A358">
         <v>44695</v>
       </c>
@@ -18643,7 +18675,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="359" spans="1:16">
+    <row r="359" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A359">
         <v>44696</v>
       </c>
@@ -18693,7 +18725,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="360" spans="1:16">
+    <row r="360" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A360">
         <v>44697</v>
       </c>
@@ -18743,7 +18775,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="361" spans="1:16">
+    <row r="361" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A361">
         <v>44697</v>
       </c>
@@ -18793,7 +18825,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="362" spans="1:16">
+    <row r="362" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A362">
         <v>44698</v>
       </c>
@@ -18843,7 +18875,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="363" spans="1:16">
+    <row r="363" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A363">
         <v>44699</v>
       </c>
@@ -18893,7 +18925,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="364" spans="1:16">
+    <row r="364" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A364">
         <v>44699</v>
       </c>
@@ -18943,7 +18975,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="365" spans="1:16">
+    <row r="365" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A365">
         <v>44701</v>
       </c>
@@ -18993,7 +19025,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="366" spans="1:16">
+    <row r="366" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A366">
         <v>44703</v>
       </c>
@@ -19043,7 +19075,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="367" spans="1:16">
+    <row r="367" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A367">
         <v>44706</v>
       </c>
@@ -19075,13 +19107,13 @@
         <v>105</v>
       </c>
       <c r="K367">
-        <v>142.8</v>
+        <v>142.80000000000001</v>
       </c>
       <c r="L367">
         <v>735</v>
       </c>
       <c r="M367">
-        <v>999.6000000000001</v>
+        <v>999.60000000000014</v>
       </c>
       <c r="N367">
         <v>25</v>
@@ -19093,7 +19125,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="368" spans="1:16">
+    <row r="368" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A368">
         <v>44707</v>
       </c>
@@ -19143,7 +19175,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="369" spans="1:16">
+    <row r="369" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A369">
         <v>44707</v>
       </c>
@@ -19193,7 +19225,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="370" spans="1:16">
+    <row r="370" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A370">
         <v>44709</v>
       </c>
@@ -19243,7 +19275,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="371" spans="1:16">
+    <row r="371" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A371">
         <v>44709</v>
       </c>
@@ -19293,7 +19325,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="372" spans="1:16">
+    <row r="372" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A372">
         <v>44709</v>
       </c>
@@ -19343,7 +19375,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="373" spans="1:16">
+    <row r="373" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A373">
         <v>44709</v>
       </c>
@@ -19381,7 +19413,7 @@
         <v>528</v>
       </c>
       <c r="M373">
-        <v>586.08</v>
+        <v>586.08000000000004</v>
       </c>
       <c r="N373">
         <v>28</v>
@@ -19393,7 +19425,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="374" spans="1:16">
+    <row r="374" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A374">
         <v>44709</v>
       </c>
@@ -19443,7 +19475,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="375" spans="1:16">
+    <row r="375" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A375">
         <v>44711</v>
       </c>
@@ -19493,7 +19525,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="376" spans="1:16">
+    <row r="376" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A376">
         <v>44711</v>
       </c>
@@ -19525,13 +19557,13 @@
         <v>133</v>
       </c>
       <c r="K376">
-        <v>155.61</v>
+        <v>155.61000000000001</v>
       </c>
       <c r="L376">
         <v>532</v>
       </c>
       <c r="M376">
-        <v>622.4400000000001</v>
+        <v>622.44000000000005</v>
       </c>
       <c r="N376">
         <v>30</v>
@@ -19543,7 +19575,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="377" spans="1:16">
+    <row r="377" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A377">
         <v>44711</v>
       </c>
@@ -19593,7 +19625,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="378" spans="1:16">
+    <row r="378" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A378">
         <v>44715</v>
       </c>
@@ -19643,7 +19675,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="379" spans="1:16">
+    <row r="379" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A379">
         <v>44722</v>
       </c>
@@ -19693,7 +19725,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="380" spans="1:16">
+    <row r="380" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A380">
         <v>44723</v>
       </c>
@@ -19743,7 +19775,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="381" spans="1:16">
+    <row r="381" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A381">
         <v>44723</v>
       </c>
@@ -19793,7 +19825,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="382" spans="1:16">
+    <row r="382" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A382">
         <v>44725</v>
       </c>
@@ -19843,7 +19875,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="383" spans="1:16">
+    <row r="383" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A383">
         <v>44727</v>
       </c>
@@ -19893,7 +19925,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="384" spans="1:16">
+    <row r="384" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A384">
         <v>44728</v>
       </c>
@@ -19943,7 +19975,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="385" spans="1:16">
+    <row r="385" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A385">
         <v>44731</v>
       </c>
@@ -19975,13 +20007,13 @@
         <v>105</v>
       </c>
       <c r="K385">
-        <v>142.8</v>
+        <v>142.80000000000001</v>
       </c>
       <c r="L385">
         <v>840</v>
       </c>
       <c r="M385">
-        <v>1142.4</v>
+        <v>1142.4000000000001</v>
       </c>
       <c r="N385">
         <v>19</v>
@@ -19993,7 +20025,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="386" spans="1:16">
+    <row r="386" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A386">
         <v>44733</v>
       </c>
@@ -20043,7 +20075,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="387" spans="1:16">
+    <row r="387" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A387">
         <v>44734</v>
       </c>
@@ -20093,7 +20125,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="388" spans="1:16">
+    <row r="388" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A388">
         <v>44734</v>
       </c>
@@ -20143,7 +20175,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="389" spans="1:16">
+    <row r="389" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A389">
         <v>44735</v>
       </c>
@@ -20193,7 +20225,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="390" spans="1:16">
+    <row r="390" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A390">
         <v>44736</v>
       </c>
@@ -20243,7 +20275,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="391" spans="1:16">
+    <row r="391" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A391">
         <v>44737</v>
       </c>
@@ -20281,7 +20313,7 @@
         <v>511</v>
       </c>
       <c r="M391">
-        <v>659.1900000000001</v>
+        <v>659.19</v>
       </c>
       <c r="N391">
         <v>25</v>
@@ -20293,7 +20325,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="392" spans="1:16">
+    <row r="392" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A392">
         <v>44738</v>
       </c>
@@ -20343,7 +20375,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="393" spans="1:16">
+    <row r="393" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A393">
         <v>44738</v>
       </c>
@@ -20393,7 +20425,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="394" spans="1:16">
+    <row r="394" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A394">
         <v>44745</v>
       </c>
@@ -20443,7 +20475,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="395" spans="1:16">
+    <row r="395" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A395">
         <v>44746</v>
       </c>
@@ -20493,7 +20525,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="396" spans="1:16">
+    <row r="396" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A396">
         <v>44747</v>
       </c>
@@ -20543,7 +20575,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="397" spans="1:16">
+    <row r="397" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A397">
         <v>44747</v>
       </c>
@@ -20593,7 +20625,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="398" spans="1:16">
+    <row r="398" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A398">
         <v>44748</v>
       </c>
@@ -20643,7 +20675,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="399" spans="1:16">
+    <row r="399" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A399">
         <v>44750</v>
       </c>
@@ -20693,7 +20725,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="400" spans="1:16">
+    <row r="400" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A400">
         <v>44752</v>
       </c>
@@ -20743,7 +20775,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="401" spans="1:16">
+    <row r="401" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A401">
         <v>44754</v>
       </c>
@@ -20793,7 +20825,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="402" spans="1:16">
+    <row r="402" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A402">
         <v>44755</v>
       </c>
@@ -20843,7 +20875,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="403" spans="1:16">
+    <row r="403" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A403">
         <v>44756</v>
       </c>
@@ -20893,7 +20925,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="404" spans="1:16">
+    <row r="404" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A404">
         <v>44757</v>
       </c>
@@ -20931,7 +20963,7 @@
         <v>88</v>
       </c>
       <c r="M404">
-        <v>97.68000000000001</v>
+        <v>97.68</v>
       </c>
       <c r="N404">
         <v>15</v>
@@ -20943,7 +20975,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="405" spans="1:16">
+    <row r="405" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A405">
         <v>44759</v>
       </c>
@@ -20993,7 +21025,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="406" spans="1:16">
+    <row r="406" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A406">
         <v>44760</v>
       </c>
@@ -21043,7 +21075,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="407" spans="1:16">
+    <row r="407" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A407">
         <v>44762</v>
       </c>
@@ -21093,7 +21125,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="408" spans="1:16">
+    <row r="408" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A408">
         <v>44764</v>
       </c>
@@ -21143,7 +21175,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="409" spans="1:16">
+    <row r="409" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A409">
         <v>44765</v>
       </c>
@@ -21193,7 +21225,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="410" spans="1:16">
+    <row r="410" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A410">
         <v>44766</v>
       </c>
@@ -21243,7 +21275,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="411" spans="1:16">
+    <row r="411" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A411">
         <v>44766</v>
       </c>
@@ -21293,7 +21325,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="412" spans="1:16">
+    <row r="412" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A412">
         <v>44767</v>
       </c>
@@ -21343,7 +21375,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="413" spans="1:16">
+    <row r="413" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A413">
         <v>44767</v>
       </c>
@@ -21393,7 +21425,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="414" spans="1:16">
+    <row r="414" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A414">
         <v>44767</v>
       </c>
@@ -21443,7 +21475,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="415" spans="1:16">
+    <row r="415" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A415">
         <v>44768</v>
       </c>
@@ -21493,7 +21525,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="416" spans="1:16">
+    <row r="416" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A416">
         <v>44768</v>
       </c>
@@ -21543,7 +21575,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="417" spans="1:16">
+    <row r="417" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A417">
         <v>44776</v>
       </c>
@@ -21593,7 +21625,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="418" spans="1:16">
+    <row r="418" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A418">
         <v>44779</v>
       </c>
@@ -21643,7 +21675,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="419" spans="1:16">
+    <row r="419" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A419">
         <v>44781</v>
       </c>
@@ -21693,7 +21725,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="420" spans="1:16">
+    <row r="420" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A420">
         <v>44781</v>
       </c>
@@ -21743,7 +21775,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="421" spans="1:16">
+    <row r="421" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A421">
         <v>44781</v>
       </c>
@@ -21793,7 +21825,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="422" spans="1:16">
+    <row r="422" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A422">
         <v>44787</v>
       </c>
@@ -21843,7 +21875,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="423" spans="1:16">
+    <row r="423" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A423">
         <v>44788</v>
       </c>
@@ -21893,7 +21925,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="424" spans="1:16">
+    <row r="424" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A424">
         <v>44788</v>
       </c>
@@ -21943,7 +21975,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="425" spans="1:16">
+    <row r="425" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A425">
         <v>44791</v>
       </c>
@@ -21993,7 +22025,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="426" spans="1:16">
+    <row r="426" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A426">
         <v>44791</v>
       </c>
@@ -22043,7 +22075,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="427" spans="1:16">
+    <row r="427" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A427">
         <v>44792</v>
       </c>
@@ -22093,7 +22125,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="428" spans="1:16">
+    <row r="428" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A428">
         <v>44793</v>
       </c>
@@ -22143,7 +22175,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="429" spans="1:16">
+    <row r="429" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A429">
         <v>44793</v>
       </c>
@@ -22193,7 +22225,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="430" spans="1:16">
+    <row r="430" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A430">
         <v>44794</v>
       </c>
@@ -22243,7 +22275,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="431" spans="1:16">
+    <row r="431" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A431">
         <v>44796</v>
       </c>
@@ -22293,7 +22325,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="432" spans="1:16">
+    <row r="432" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A432">
         <v>44796</v>
       </c>
@@ -22343,7 +22375,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="433" spans="1:16">
+    <row r="433" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A433">
         <v>44797</v>
       </c>
@@ -22375,13 +22407,13 @@
         <v>133</v>
       </c>
       <c r="K433">
-        <v>155.61</v>
+        <v>155.61000000000001</v>
       </c>
       <c r="L433">
         <v>665</v>
       </c>
       <c r="M433">
-        <v>778.0500000000001</v>
+        <v>778.05000000000007</v>
       </c>
       <c r="N433">
         <v>24</v>
@@ -22393,7 +22425,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="434" spans="1:16">
+    <row r="434" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A434">
         <v>44799</v>
       </c>
@@ -22443,7 +22475,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="435" spans="1:16">
+    <row r="435" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A435">
         <v>44799</v>
       </c>
@@ -22475,7 +22507,7 @@
         <v>67</v>
       </c>
       <c r="K435">
-        <v>85.76000000000001</v>
+        <v>85.76</v>
       </c>
       <c r="L435">
         <v>536</v>
@@ -22493,7 +22525,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="436" spans="1:16">
+    <row r="436" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A436">
         <v>44800</v>
       </c>
@@ -22543,7 +22575,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="437" spans="1:16">
+    <row r="437" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A437">
         <v>44801</v>
       </c>
@@ -22575,7 +22607,7 @@
         <v>133</v>
       </c>
       <c r="K437">
-        <v>155.61</v>
+        <v>155.61000000000001</v>
       </c>
       <c r="L437">
         <v>1197</v>
@@ -22593,7 +22625,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="438" spans="1:16">
+    <row r="438" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A438">
         <v>44801</v>
       </c>
@@ -22643,7 +22675,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="439" spans="1:16">
+    <row r="439" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A439">
         <v>44803</v>
       </c>
@@ -22693,7 +22725,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="440" spans="1:16">
+    <row r="440" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A440">
         <v>44803</v>
       </c>
@@ -22743,7 +22775,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="441" spans="1:16">
+    <row r="441" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A441">
         <v>44803</v>
       </c>
@@ -22793,7 +22825,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="442" spans="1:16">
+    <row r="442" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A442">
         <v>44804</v>
       </c>
@@ -22843,7 +22875,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="443" spans="1:16">
+    <row r="443" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A443">
         <v>44808</v>
       </c>
@@ -22875,13 +22907,13 @@
         <v>105</v>
       </c>
       <c r="K443">
-        <v>142.8</v>
+        <v>142.80000000000001</v>
       </c>
       <c r="L443">
         <v>105</v>
       </c>
       <c r="M443">
-        <v>142.8</v>
+        <v>142.80000000000001</v>
       </c>
       <c r="N443">
         <v>4</v>
@@ -22893,7 +22925,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="444" spans="1:16">
+    <row r="444" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A444">
         <v>44810</v>
       </c>
@@ -22925,7 +22957,7 @@
         <v>133</v>
       </c>
       <c r="K444">
-        <v>155.61</v>
+        <v>155.61000000000001</v>
       </c>
       <c r="L444">
         <v>1596</v>
@@ -22943,7 +22975,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="445" spans="1:16">
+    <row r="445" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A445">
         <v>44813</v>
       </c>
@@ -22993,7 +23025,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="446" spans="1:16">
+    <row r="446" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A446">
         <v>44813</v>
       </c>
@@ -23043,7 +23075,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="447" spans="1:16">
+    <row r="447" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A447">
         <v>44814</v>
       </c>
@@ -23093,7 +23125,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="448" spans="1:16">
+    <row r="448" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A448">
         <v>44814</v>
       </c>
@@ -23143,7 +23175,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="449" spans="1:16">
+    <row r="449" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A449">
         <v>44818</v>
       </c>
@@ -23181,7 +23213,7 @@
         <v>141</v>
       </c>
       <c r="M449">
-        <v>159.33</v>
+        <v>159.33000000000001</v>
       </c>
       <c r="N449">
         <v>14</v>
@@ -23193,7 +23225,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="450" spans="1:16">
+    <row r="450" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A450">
         <v>44819</v>
       </c>
@@ -23225,13 +23257,13 @@
         <v>67</v>
       </c>
       <c r="K450">
-        <v>85.76000000000001</v>
+        <v>85.76</v>
       </c>
       <c r="L450">
         <v>1005</v>
       </c>
       <c r="M450">
-        <v>1286.4</v>
+        <v>1286.4000000000001</v>
       </c>
       <c r="N450">
         <v>15</v>
@@ -23243,7 +23275,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="451" spans="1:16">
+    <row r="451" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A451">
         <v>44822</v>
       </c>
@@ -23293,7 +23325,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="452" spans="1:16">
+    <row r="452" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A452">
         <v>44823</v>
       </c>
@@ -23343,7 +23375,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="453" spans="1:16">
+    <row r="453" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A453">
         <v>44824</v>
       </c>
@@ -23393,7 +23425,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="454" spans="1:16">
+    <row r="454" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A454">
         <v>44824</v>
       </c>
@@ -23443,7 +23475,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="455" spans="1:16">
+    <row r="455" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A455">
         <v>44825</v>
       </c>
@@ -23481,7 +23513,7 @@
         <v>518</v>
       </c>
       <c r="M455">
-        <v>688.9400000000001</v>
+        <v>688.94</v>
       </c>
       <c r="N455">
         <v>21</v>
@@ -23493,7 +23525,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="456" spans="1:16">
+    <row r="456" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A456">
         <v>44825</v>
       </c>
@@ -23543,7 +23575,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="457" spans="1:16">
+    <row r="457" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A457">
         <v>44826</v>
       </c>
@@ -23593,7 +23625,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="458" spans="1:16">
+    <row r="458" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A458">
         <v>44827</v>
       </c>
@@ -23643,7 +23675,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="459" spans="1:16">
+    <row r="459" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A459">
         <v>44828</v>
       </c>
@@ -23693,7 +23725,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="460" spans="1:16">
+    <row r="460" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A460">
         <v>44828</v>
       </c>
@@ -23743,7 +23775,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="461" spans="1:16">
+    <row r="461" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A461">
         <v>44831</v>
       </c>
@@ -23793,7 +23825,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="462" spans="1:16">
+    <row r="462" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A462">
         <v>44831</v>
       </c>
@@ -23843,7 +23875,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="463" spans="1:16">
+    <row r="463" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A463">
         <v>44831</v>
       </c>
@@ -23893,7 +23925,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="464" spans="1:16">
+    <row r="464" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A464">
         <v>44833</v>
       </c>
@@ -23943,7 +23975,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="465" spans="1:16">
+    <row r="465" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A465">
         <v>44837</v>
       </c>
@@ -23993,7 +24025,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="466" spans="1:16">
+    <row r="466" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A466">
         <v>44838</v>
       </c>
@@ -24043,7 +24075,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="467" spans="1:16">
+    <row r="467" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A467">
         <v>44840</v>
       </c>
@@ -24093,7 +24125,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="468" spans="1:16">
+    <row r="468" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A468">
         <v>44843</v>
       </c>
@@ -24131,7 +24163,7 @@
         <v>1008</v>
       </c>
       <c r="M468">
-        <v>1118.88</v>
+        <v>1118.8800000000001</v>
       </c>
       <c r="N468">
         <v>9</v>
@@ -24143,7 +24175,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="469" spans="1:16">
+    <row r="469" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A469">
         <v>44844</v>
       </c>
@@ -24193,7 +24225,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="470" spans="1:16">
+    <row r="470" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A470">
         <v>44844</v>
       </c>
@@ -24243,7 +24275,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="471" spans="1:16">
+    <row r="471" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A471">
         <v>44845</v>
       </c>
@@ -24293,7 +24325,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="472" spans="1:16">
+    <row r="472" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A472">
         <v>44847</v>
       </c>
@@ -24325,7 +24357,7 @@
         <v>105</v>
       </c>
       <c r="K472">
-        <v>142.8</v>
+        <v>142.80000000000001</v>
       </c>
       <c r="L472">
         <v>1575</v>
@@ -24343,7 +24375,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="473" spans="1:16">
+    <row r="473" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A473">
         <v>44848</v>
       </c>
@@ -24393,7 +24425,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="474" spans="1:16">
+    <row r="474" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A474">
         <v>44849</v>
       </c>
@@ -24431,7 +24463,7 @@
         <v>120</v>
       </c>
       <c r="M474">
-        <v>157.2</v>
+        <v>157.19999999999999</v>
       </c>
       <c r="N474">
         <v>15</v>
@@ -24443,7 +24475,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="475" spans="1:16">
+    <row r="475" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A475">
         <v>44850</v>
       </c>
@@ -24481,7 +24513,7 @@
         <v>270</v>
       </c>
       <c r="M475">
-        <v>288.9</v>
+        <v>288.89999999999998</v>
       </c>
       <c r="N475">
         <v>16</v>
@@ -24493,7 +24525,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="476" spans="1:16">
+    <row r="476" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A476">
         <v>44857</v>
       </c>
@@ -24543,7 +24575,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="477" spans="1:16">
+    <row r="477" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A477">
         <v>44864</v>
       </c>
@@ -24593,7 +24625,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="478" spans="1:16">
+    <row r="478" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A478">
         <v>44865</v>
       </c>
@@ -24643,7 +24675,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="479" spans="1:16">
+    <row r="479" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A479">
         <v>44866</v>
       </c>
@@ -24693,7 +24725,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="480" spans="1:16">
+    <row r="480" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A480">
         <v>44867</v>
       </c>
@@ -24743,7 +24775,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="481" spans="1:16">
+    <row r="481" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A481">
         <v>44867</v>
       </c>
@@ -24793,7 +24825,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="482" spans="1:16">
+    <row r="482" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A482">
         <v>44867</v>
       </c>
@@ -24843,7 +24875,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="483" spans="1:16">
+    <row r="483" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A483">
         <v>44868</v>
       </c>
@@ -24893,7 +24925,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="484" spans="1:16">
+    <row r="484" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A484">
         <v>44869</v>
       </c>
@@ -24943,7 +24975,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="485" spans="1:16">
+    <row r="485" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A485">
         <v>44870</v>
       </c>
@@ -24993,7 +25025,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="486" spans="1:16">
+    <row r="486" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A486">
         <v>44871</v>
       </c>
@@ -25043,7 +25075,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="487" spans="1:16">
+    <row r="487" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A487">
         <v>44871</v>
       </c>
@@ -25093,7 +25125,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="488" spans="1:16">
+    <row r="488" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A488">
         <v>44871</v>
       </c>
@@ -25143,7 +25175,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="489" spans="1:16">
+    <row r="489" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A489">
         <v>44872</v>
       </c>
@@ -25193,7 +25225,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="490" spans="1:16">
+    <row r="490" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A490">
         <v>44873</v>
       </c>
@@ -25243,7 +25275,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="491" spans="1:16">
+    <row r="491" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A491">
         <v>44873</v>
       </c>
@@ -25293,7 +25325,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="492" spans="1:16">
+    <row r="492" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A492">
         <v>44874</v>
       </c>
@@ -25343,7 +25375,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="493" spans="1:16">
+    <row r="493" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A493">
         <v>44875</v>
       </c>
@@ -25393,7 +25425,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="494" spans="1:16">
+    <row r="494" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A494">
         <v>44878</v>
       </c>
@@ -25431,7 +25463,7 @@
         <v>480</v>
       </c>
       <c r="M494">
-        <v>571.2</v>
+        <v>571.20000000000005</v>
       </c>
       <c r="N494">
         <v>13</v>
@@ -25443,7 +25475,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="495" spans="1:16">
+    <row r="495" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A495">
         <v>44879</v>
       </c>
@@ -25475,13 +25507,13 @@
         <v>105</v>
       </c>
       <c r="K495">
-        <v>142.8</v>
+        <v>142.80000000000001</v>
       </c>
       <c r="L495">
         <v>105</v>
       </c>
       <c r="M495">
-        <v>142.8</v>
+        <v>142.80000000000001</v>
       </c>
       <c r="N495">
         <v>14</v>
@@ -25493,7 +25525,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="496" spans="1:16">
+    <row r="496" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A496">
         <v>44880</v>
       </c>
@@ -25543,7 +25575,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="497" spans="1:16">
+    <row r="497" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A497">
         <v>44881</v>
       </c>
@@ -25593,7 +25625,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="498" spans="1:16">
+    <row r="498" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A498">
         <v>44883</v>
       </c>
@@ -25643,7 +25675,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="499" spans="1:16">
+    <row r="499" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A499">
         <v>44886</v>
       </c>
@@ -25693,7 +25725,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="500" spans="1:16">
+    <row r="500" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A500">
         <v>44888</v>
       </c>
@@ -25731,7 +25763,7 @@
         <v>1080</v>
       </c>
       <c r="M500">
-        <v>1155.6</v>
+        <v>1155.5999999999999</v>
       </c>
       <c r="N500">
         <v>23</v>
@@ -25743,7 +25775,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="501" spans="1:16">
+    <row r="501" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A501">
         <v>44890</v>
       </c>
@@ -25793,7 +25825,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="502" spans="1:16">
+    <row r="502" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A502">
         <v>44891</v>
       </c>
@@ -25843,7 +25875,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="503" spans="1:16">
+    <row r="503" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A503">
         <v>44892</v>
       </c>
@@ -25893,7 +25925,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="504" spans="1:16">
+    <row r="504" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A504">
         <v>44893</v>
       </c>
@@ -25943,7 +25975,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="505" spans="1:16">
+    <row r="505" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A505">
         <v>44895</v>
       </c>
@@ -25993,7 +26025,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="506" spans="1:16">
+    <row r="506" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A506">
         <v>44898</v>
       </c>
@@ -26043,7 +26075,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="507" spans="1:16">
+    <row r="507" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A507">
         <v>44899</v>
       </c>
@@ -26093,7 +26125,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="508" spans="1:16">
+    <row r="508" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A508">
         <v>44899</v>
       </c>
@@ -26143,7 +26175,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="509" spans="1:16">
+    <row r="509" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A509">
         <v>44902</v>
       </c>
@@ -26193,7 +26225,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="510" spans="1:16">
+    <row r="510" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A510">
         <v>44902</v>
       </c>
@@ -26243,7 +26275,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="511" spans="1:16">
+    <row r="511" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A511">
         <v>44902</v>
       </c>
@@ -26293,7 +26325,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="512" spans="1:16">
+    <row r="512" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A512">
         <v>44906</v>
       </c>
@@ -26331,7 +26363,7 @@
         <v>240</v>
       </c>
       <c r="M512">
-        <v>285.6</v>
+        <v>285.60000000000002</v>
       </c>
       <c r="N512">
         <v>11</v>
@@ -26343,7 +26375,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="513" spans="1:16">
+    <row r="513" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A513">
         <v>44906</v>
       </c>
@@ -26393,7 +26425,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="514" spans="1:16">
+    <row r="514" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A514">
         <v>44906</v>
       </c>
@@ -26443,7 +26475,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="515" spans="1:16">
+    <row r="515" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A515">
         <v>44907</v>
       </c>
@@ -26493,7 +26525,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="516" spans="1:16">
+    <row r="516" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A516">
         <v>44907</v>
       </c>
@@ -26543,7 +26575,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="517" spans="1:16">
+    <row r="517" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A517">
         <v>44909</v>
       </c>
@@ -26575,13 +26607,13 @@
         <v>133</v>
       </c>
       <c r="K517">
-        <v>155.61</v>
+        <v>155.61000000000001</v>
       </c>
       <c r="L517">
         <v>532</v>
       </c>
       <c r="M517">
-        <v>622.4400000000001</v>
+        <v>622.44000000000005</v>
       </c>
       <c r="N517">
         <v>14</v>
@@ -26593,7 +26625,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="518" spans="1:16">
+    <row r="518" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A518">
         <v>44910</v>
       </c>
@@ -26625,7 +26657,7 @@
         <v>6</v>
       </c>
       <c r="K518">
-        <v>7.859999999999999</v>
+        <v>7.8599999999999994</v>
       </c>
       <c r="L518">
         <v>78</v>
@@ -26643,7 +26675,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="519" spans="1:16">
+    <row r="519" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A519">
         <v>44914</v>
       </c>
@@ -26681,7 +26713,7 @@
         <v>532</v>
       </c>
       <c r="M519">
-        <v>574.5599999999999</v>
+        <v>574.55999999999995</v>
       </c>
       <c r="N519">
         <v>19</v>
@@ -26693,7 +26725,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="520" spans="1:16">
+    <row r="520" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A520">
         <v>44914</v>
       </c>
@@ -26743,7 +26775,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="521" spans="1:16">
+    <row r="521" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A521">
         <v>44914</v>
       </c>
@@ -26775,13 +26807,13 @@
         <v>6</v>
       </c>
       <c r="K521">
-        <v>7.859999999999999</v>
+        <v>7.8599999999999994</v>
       </c>
       <c r="L521">
         <v>66</v>
       </c>
       <c r="M521">
-        <v>86.45999999999999</v>
+        <v>86.46</v>
       </c>
       <c r="N521">
         <v>19</v>
@@ -26793,7 +26825,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="522" spans="1:16">
+    <row r="522" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A522">
         <v>44916</v>
       </c>
@@ -26843,7 +26875,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="523" spans="1:16">
+    <row r="523" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A523">
         <v>44924</v>
       </c>
@@ -26893,7 +26925,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="524" spans="1:16">
+    <row r="524" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A524">
         <v>44924</v>
       </c>
@@ -26943,7 +26975,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="525" spans="1:16">
+    <row r="525" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A525">
         <v>44925</v>
       </c>
@@ -26981,7 +27013,7 @@
         <v>1932</v>
       </c>
       <c r="M525">
-        <v>2434.32</v>
+        <v>2434.3200000000002</v>
       </c>
       <c r="N525">
         <v>30</v>
@@ -26993,7 +27025,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="526" spans="1:16">
+    <row r="526" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A526">
         <v>44926</v>
       </c>
@@ -27043,7 +27075,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="527" spans="1:16">
+    <row r="527" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A527">
         <v>44926</v>
       </c>
@@ -27081,7 +27113,7 @@
         <v>264</v>
       </c>
       <c r="M527">
-        <v>290.4</v>
+        <v>290.39999999999998</v>
       </c>
       <c r="N527">
         <v>31</v>
@@ -27093,7 +27125,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="528" spans="1:16">
+    <row r="528" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A528">
         <v>44926</v>
       </c>
@@ -27131,7 +27163,7 @@
         <v>132</v>
       </c>
       <c r="M528">
-        <v>145.2</v>
+        <v>145.19999999999999</v>
       </c>
       <c r="N528">
         <v>31</v>
@@ -27143,7 +27175,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="529" spans="1:16">
+    <row r="529" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A529">
         <v>44197</v>
       </c>
@@ -27193,7 +27225,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="530" spans="1:16">
+    <row r="530" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A530">
         <v>44198</v>
       </c>
